--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2008-10-31-2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2008-10-31-2020-02-29.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>CA_FFR</t>
-  </si>
-  <si>
-    <t>CA_LF</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>A_FFR</t>
+  </si>
+  <si>
+    <t>A_C</t>
+  </si>
+  <si>
+    <t>C_FFR</t>
+  </si>
+  <si>
+    <t>C_LF</t>
   </si>
   <si>
     <t>params</t>
@@ -383,40 +389,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>10.56400606921197</v>
+        <v>-0.3163966837189722</v>
       </c>
       <c r="C2">
-        <v>0.8376754650626034</v>
+        <v>0.09990913853869314</v>
+      </c>
+      <c r="D2">
+        <v>-2.0198437208138</v>
+      </c>
+      <c r="E2">
+        <v>-0.2076325079283591</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6.661338147750939E-16</v>
       </c>
       <c r="C3">
         <v>0</v>
+      </c>
+      <c r="D3">
+        <v>8.269114193382165E-08</v>
+      </c>
+      <c r="E3">
+        <v>5.33984123585185E-09</v>
       </c>
     </row>
   </sheetData>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2008-10-31-2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2008-10-31-2020-02-29.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>C_LF</t>
+  </si>
+  <si>
+    <t>C_FFR</t>
+  </si>
+  <si>
+    <t>A_C</t>
+  </si>
+  <si>
     <t>A_FFR</t>
-  </si>
-  <si>
-    <t>A_C</t>
-  </si>
-  <si>
-    <t>C_FFR</t>
-  </si>
-  <si>
-    <t>C_LF</t>
   </si>
   <si>
     <t>params</t>
@@ -414,16 +414,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.3163966837189722</v>
+        <v>-0.2306574360723526</v>
       </c>
       <c r="C2">
-        <v>0.09990913853869314</v>
+        <v>-2.081309701867541</v>
       </c>
       <c r="D2">
-        <v>-2.0198437208138</v>
+        <v>0.09969799912890473</v>
       </c>
       <c r="E2">
-        <v>-0.2076325079283591</v>
+        <v>-0.3168500802190489</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,16 +431,16 @@
         <v>5</v>
       </c>
       <c r="B3">
+        <v>9.646168974697389E-09</v>
+      </c>
+      <c r="C3">
+        <v>3.557482086691266E-08</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>6.661338147750939E-16</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>8.269114193382165E-08</v>
-      </c>
-      <c r="E3">
-        <v>5.33984123585185E-09</v>
       </c>
     </row>
   </sheetData>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2008-10-31-2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2008-10-31-2020-02-29.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>C_FFR</t>
+  </si>
+  <si>
     <t>C_LF</t>
-  </si>
-  <si>
-    <t>C_FFR</t>
   </si>
   <si>
     <t>A_C</t>
@@ -414,16 +414,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.2306574360723526</v>
+        <v>-2.081309701867536</v>
       </c>
       <c r="C2">
-        <v>-2.081309701867541</v>
+        <v>-0.2306574360723529</v>
       </c>
       <c r="D2">
-        <v>0.09969799912890473</v>
+        <v>0.0996979991289048</v>
       </c>
       <c r="E2">
-        <v>-0.3168500802190489</v>
+        <v>-0.3168500802190488</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,10 +431,10 @@
         <v>5</v>
       </c>
       <c r="B3">
+        <v>3.557482086691266E-08</v>
+      </c>
+      <c r="C3">
         <v>9.646168974697389E-09</v>
-      </c>
-      <c r="C3">
-        <v>3.557482086691266E-08</v>
       </c>
       <c r="D3">
         <v>0</v>
